--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1532"/>
+  <dimension ref="A1:G1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39392,10 +39392,8 @@
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -39425,10 +39423,8 @@
           <t>190.0K</t>
         </is>
       </c>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -39462,10 +39458,8 @@
           <t>$-122B</t>
         </is>
       </c>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -39495,10 +39489,8 @@
           <t>$271B</t>
         </is>
       </c>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -39528,10 +39520,8 @@
           <t>$393B</t>
         </is>
       </c>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -39565,10 +39555,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1431">
@@ -39602,10 +39590,8 @@
           <t>1860.0K</t>
         </is>
       </c>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -39635,10 +39621,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -39672,10 +39656,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -39709,10 +39691,8 @@
           <t>54.3</t>
         </is>
       </c>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -39746,10 +39726,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -39779,10 +39757,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -39812,10 +39788,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -39845,10 +39819,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -39878,10 +39850,8 @@
           <t>64</t>
         </is>
       </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -39911,10 +39881,8 @@
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -39940,10 +39908,8 @@
       </c>
       <c r="E1441" t="inlineStr"/>
       <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -39969,10 +39935,8 @@
       </c>
       <c r="E1442" t="inlineStr"/>
       <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -39998,10 +39962,8 @@
       </c>
       <c r="E1443" t="inlineStr"/>
       <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -40027,10 +39989,8 @@
       </c>
       <c r="E1444" t="inlineStr"/>
       <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -40048,10 +40008,8 @@
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr"/>
       <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -40065,69 +40023,91 @@
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr"/>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>Friday April 04 2025</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelAPR</t>
+        </is>
+      </c>
       <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
       <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
       <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/02</t>
-        </is>
-      </c>
-      <c r="C1449" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
+          <t>Michigan Inflation Expectations PrelAPR</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>$6.74T</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="G1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -40137,2105 +40117,70 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>151K</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>135K</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>100.0K</t>
-        </is>
-      </c>
+      <c r="D1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Unemployment RateMAR</t>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1451" t="inlineStr"/>
+      <c r="E1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMMAR</t>
-        </is>
-      </c>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
       <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYMAR</t>
-        </is>
-      </c>
+          <t>Monday April 14 2025</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr"/>
       <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>Participation RateMAR</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAR</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Government PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr">
-        <is>
-          <t>11K</t>
-        </is>
-      </c>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>-5.0K</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>4K</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>1.0K</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateMAR</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>127K</t>
-        </is>
-      </c>
-      <c r="F1458" t="inlineStr">
-        <is>
-          <t>105.0K</t>
-        </is>
-      </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAR</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr">
-        <is>
-          <t>8.1%</t>
-        </is>
-      </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>08:55 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr">
-        <is>
-          <t>Fed Barr Speech</t>
-        </is>
-      </c>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>10:15 PM</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>Saturday April 05 2025</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Monday April 07 2025</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr">
-        <is>
-          <t>4.070%</t>
-        </is>
-      </c>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr"/>
-      <c r="B1469" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr"/>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Tuesday April 08 2025</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr">
-        <is>
-          <t>$18.08B</t>
-        </is>
-      </c>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>$15.0B</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr">
-        <is>
-          <t>100.7</t>
-        </is>
-      </c>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/05</t>
-        </is>
-      </c>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr">
-        <is>
-          <t>3.908%</t>
-        </is>
-      </c>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
-        </is>
-      </c>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
-        </is>
-      </c>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr">
-        <is>
-          <t>243.6</t>
-        </is>
-      </c>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr">
-        <is>
-          <t>710.4</t>
-        </is>
-      </c>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr">
-        <is>
-          <t>158.2</t>
-        </is>
-      </c>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr">
-        <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>-1.551M</t>
-        </is>
-      </c>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr">
-        <is>
-          <t>0.999M</t>
-        </is>
-      </c>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>2.373M</t>
-        </is>
-      </c>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr">
-        <is>
-          <t>0.164M</t>
-        </is>
-      </c>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>0.264M</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>0.062M</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr">
-        <is>
-          <t>-0.192M</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr">
-        <is>
-          <t>4.310%</t>
-        </is>
-      </c>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>CPIMAR</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr">
-        <is>
-          <t>319.082</t>
-        </is>
-      </c>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>CPI s.aMAR</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>319.775</t>
-        </is>
-      </c>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr">
-        <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>1915.0K</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr">
-        <is>
-          <t>29Bcf</t>
-        </is>
-      </c>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr">
-        <is>
-          <t>6.64%</t>
-        </is>
-      </c>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>4.623%</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAR</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>$-307B</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr"/>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/09</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>PPIMAR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr"/>
-      <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr"/>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
+      <c r="D1453" t="inlineStr"/>
+      <c r="E1453" t="inlineStr"/>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1537"/>
+  <dimension ref="A1:G1538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40673,25 +40673,21 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
+      <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr"/>
       <c r="F1472" t="inlineStr"/>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40703,13 +40699,13 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr"/>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E1473" t="inlineStr"/>
@@ -40721,16 +40717,20 @@
       </c>
     </row>
     <row r="1474">
-      <c r="A1474" t="inlineStr"/>
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMMAR</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr"/>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr"/>
@@ -40745,13 +40745,13 @@
       <c r="A1475" t="inlineStr"/>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYMAR</t>
+          <t>Used Car Prices MoMMAR</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr"/>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E1475" t="inlineStr"/>
@@ -40763,68 +40763,60 @@
       </c>
     </row>
     <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Tuesday April 08 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
+      <c r="A1476" t="inlineStr"/>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYMAR</t>
+        </is>
+      </c>
       <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeFEB</t>
-        </is>
-      </c>
+          <t>Tuesday April 08 2025</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr"/>
       <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr">
-        <is>
-          <t>$18.08B</t>
-        </is>
-      </c>
+      <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr">
-        <is>
-          <t>$15.0B</t>
-        </is>
-      </c>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr"/>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexMAR</t>
+          <t>Consumer Credit ChangeFEB</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr"/>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>100.7</t>
+          <t>$18.08B</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>$15.0B</t>
         </is>
       </c>
       <c r="G1478" t="inlineStr">
@@ -40836,22 +40828,26 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/05</t>
+          <t>NFIB Business Optimism IndexMAR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr"/>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>100.7</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="G1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -40861,18 +40857,18 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Redbook YoYAPR/05</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr"/>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>3.908%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr"/>
@@ -40886,56 +40882,56 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>3.908%</t>
+        </is>
+      </c>
       <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
+          <t>Wednesday April 09 2025</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr"/>
       <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
+      <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1482" t="inlineStr"/>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
+          <t>API Crude Oil Stock ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr"/>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>6.037M</t>
         </is>
       </c>
       <c r="E1483" t="inlineStr"/>
@@ -40954,20 +40950,20 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
+          <t>MBA 30-Year Mortgage RateAPR/04</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40979,13 +40975,13 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
+          <t>MBA Mortgage ApplicationsAPR/04</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>243.6</t>
+          <t>-1.6%</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr"/>
@@ -41004,13 +41000,13 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
+          <t>MBA Mortgage Market IndexAPR/04</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>710.4</t>
+          <t>243.6</t>
         </is>
       </c>
       <c r="E1486" t="inlineStr"/>
@@ -41029,13 +41025,13 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/04</t>
+          <t>MBA Mortgage Refinance IndexAPR/04</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>158.2</t>
+          <t>710.4</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr"/>
@@ -41049,30 +41045,22 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMFEB</t>
+          <t>MBA Purchase IndexAPR/04</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1488" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>158.2</t>
+        </is>
+      </c>
+      <c r="E1488" t="inlineStr"/>
+      <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -41082,25 +41070,33 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
+          <t>Wholesale Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41112,13 +41108,13 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>-1.551M</t>
+          <t>6.165M</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr"/>
@@ -41137,20 +41133,20 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
+          <t>EIA Gasoline Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>0.999M</t>
+          <t>-1.551M</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41162,13 +41158,13 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
+          <t>EIA Crude Oil Imports ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr"/>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>2.373M</t>
+          <t>0.999M</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr"/>
@@ -41187,13 +41183,13 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr"/>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>0.164M</t>
+          <t>2.373M</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr"/>
@@ -41212,13 +41208,13 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr"/>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>0.264M</t>
+          <t>0.164M</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr"/>
@@ -41237,13 +41233,13 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
+          <t>EIA Distillate Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>0.062M</t>
+          <t>0.264M</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
@@ -41262,13 +41258,13 @@
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
+          <t>EIA Gasoline Production ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>0.209M</t>
+          <t>0.062M</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr"/>
@@ -41287,13 +41283,13 @@
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>-0.192M</t>
+          <t>0.209M</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr"/>
@@ -41307,18 +41303,18 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>-0.192M</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr"/>
@@ -41332,18 +41328,18 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr"/>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>4.310%</t>
+          <t>4.200%</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr"/>
@@ -41357,65 +41353,61 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>4.310%</t>
+        </is>
+      </c>
       <c r="E1500" t="inlineStr"/>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
       <c r="C1501" t="inlineStr"/>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr"/>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAR</t>
-        </is>
-      </c>
+          <t>Thursday April 10 2025</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr"/>
       <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1502" t="inlineStr"/>
       <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr"/>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
@@ -41425,19 +41417,19 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYMAR</t>
+          <t>Core Inflation Rate MoMMAR</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr"/>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr"/>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1503" t="inlineStr">
@@ -41454,19 +41446,19 @@
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMMAR</t>
+          <t>Core Inflation Rate YoYMAR</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr"/>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr"/>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G1504" t="inlineStr">
@@ -41483,19 +41475,19 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYMAR</t>
+          <t>Inflation Rate MoMMAR</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr"/>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1505" t="inlineStr"/>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1505" t="inlineStr">
@@ -41512,24 +41504,24 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>CPIMAR</t>
+          <t>Inflation Rate YoYMAR</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr"/>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>319.082</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr">
         <is>
-          <t>320.1</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41541,13 +41533,13 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>CPI s.aMAR</t>
+          <t>CPIMAR</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>319.775</t>
+          <t>319.082</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr"/>
@@ -41570,19 +41562,19 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
+          <t>CPI s.aMAR</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr"/>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>219K</t>
+          <t>319.775</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>226.0K</t>
+          <t>320.1</t>
         </is>
       </c>
       <c r="G1508" t="inlineStr">
@@ -41599,24 +41591,24 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
+          <t>Initial Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr"/>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>1903K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>1915.0K</t>
+          <t>226.0K</t>
         </is>
       </c>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41628,19 +41620,19 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
+          <t>Continuing Jobless ClaimsMAR/29</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr"/>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>1903K</t>
         </is>
       </c>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr">
         <is>
-          <t>226.0K</t>
+          <t>1915.0K</t>
         </is>
       </c>
       <c r="G1510" t="inlineStr">
@@ -41652,22 +41644,26 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
+          <t>Jobless Claims 4-week AverageAPR/05</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr"/>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>29Bcf</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>226.0K</t>
+        </is>
+      </c>
       <c r="G1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -41677,16 +41673,20 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>29Bcf</t>
+        </is>
+      </c>
       <c r="E1512" t="inlineStr"/>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
@@ -41703,11 +41703,15 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr"/>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E1513" t="inlineStr"/>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
@@ -41719,21 +41723,25 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr"/>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41745,20 +41753,16 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateAPR/10</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
+      <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41770,13 +41774,13 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateAPR/10</t>
+          <t>15-Year Mortgage RateAPR/10</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr"/>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E1516" t="inlineStr"/>
@@ -41795,11 +41799,15 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>30-Year Mortgage RateAPR/10</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr"/>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>6.64%</t>
+        </is>
+      </c>
       <c r="E1517" t="inlineStr"/>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
@@ -41811,20 +41819,16 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>4.623%</t>
-        </is>
-      </c>
+      <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr"/>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
@@ -41836,96 +41840,92 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementMAR</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr"/>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>$-307B</t>
+          <t>4.623%</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
+      <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementMAR</t>
+        </is>
+      </c>
       <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr"/>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>$-307B</t>
+        </is>
+      </c>
       <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>$-315.6B</t>
+        </is>
+      </c>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/09</t>
-        </is>
-      </c>
+          <t>Friday April 11 2025</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr"/>
       <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>$6.72T</t>
-        </is>
-      </c>
+      <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Fed Balance SheetAPR/09</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr"/>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$6.72T</t>
         </is>
       </c>
       <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41937,24 +41937,24 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>PPI MoMMAR</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr"/>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41966,24 +41966,24 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Core PPI MoMMAR</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr"/>
       <c r="D1524" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1524" t="inlineStr"/>
       <c r="F1524" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41995,19 +41995,19 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Core PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr"/>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr">
         <is>
-          <t>147.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1525" t="inlineStr">
@@ -42024,19 +42024,19 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>PPIMAR</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr"/>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>147.953</t>
         </is>
       </c>
       <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.8</t>
         </is>
       </c>
       <c r="G1526" t="inlineStr">
@@ -42053,19 +42053,19 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr"/>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1527" t="inlineStr">
@@ -42082,19 +42082,19 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr"/>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1528" t="inlineStr"/>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1528" t="inlineStr">
@@ -42106,29 +42106,29 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42140,24 +42140,24 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Michigan Consumer Sentiment PrelAPR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42169,19 +42169,19 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr"/>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G1531" t="inlineStr">
@@ -42198,19 +42198,19 @@
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Michigan Consumer Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr"/>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="G1532" t="inlineStr">
@@ -42227,19 +42227,19 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="G1533" t="inlineStr">
@@ -42251,18 +42251,26 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Michigan Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr"/>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="G1534" t="inlineStr">
         <is>
           <t>3</t>
@@ -42277,7 +42285,7 @@
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr"/>
@@ -42293,20 +42301,28 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
+        </is>
+      </c>
       <c r="C1536" t="inlineStr"/>
       <c r="D1536" t="inlineStr"/>
       <c r="E1536" t="inlineStr"/>
       <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
+          <t>Saturday April 12 2025</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr"/>
@@ -42316,6 +42332,19 @@
       <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr"/>
     </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Monday April 14 2025</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr"/>
+      <c r="C1538" t="inlineStr"/>
+      <c r="D1538" t="inlineStr"/>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -41426,7 +41426,11 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -41484,7 +41488,11 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -41946,7 +41954,11 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="E1523" t="inlineStr"/>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1523" t="inlineStr">
         <is>
           <t>-0.1%</t>
@@ -41975,7 +41987,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1524" t="inlineStr">
         <is>
           <t>0.0%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1538"/>
+  <dimension ref="A1:G1543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40907,56 +40907,52 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
       <c r="C1482" t="inlineStr"/>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
+      <c r="G1482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
+          <t>Wednesday April 09 2025</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr"/>
       <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
+      <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr"/>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1483" t="inlineStr"/>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
+          <t>API Crude Oil Stock ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr"/>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>6.037M</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr"/>
@@ -40975,20 +40971,20 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
+          <t>MBA 30-Year Mortgage RateAPR/04</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr"/>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41000,13 +40996,13 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
+          <t>MBA Mortgage ApplicationsAPR/04</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr"/>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>243.6</t>
+          <t>-1.6%</t>
         </is>
       </c>
       <c r="E1486" t="inlineStr"/>
@@ -41025,13 +41021,13 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
+          <t>MBA Mortgage Market IndexAPR/04</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>710.4</t>
+          <t>243.6</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr"/>
@@ -41050,13 +41046,13 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/04</t>
+          <t>MBA Mortgage Refinance IndexAPR/04</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr"/>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>158.2</t>
+          <t>710.4</t>
         </is>
       </c>
       <c r="E1488" t="inlineStr"/>
@@ -41070,30 +41066,22 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMFEB</t>
+          <t>MBA Purchase IndexAPR/04</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr"/>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1489" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>158.2</t>
+        </is>
+      </c>
+      <c r="E1489" t="inlineStr"/>
+      <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -41103,25 +41091,33 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
+          <t>Wholesale Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr"/>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41133,13 +41129,13 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>-1.551M</t>
+          <t>6.165M</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr"/>
@@ -41158,20 +41154,20 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
+          <t>EIA Gasoline Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr"/>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>0.999M</t>
+          <t>-1.551M</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr"/>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41183,13 +41179,13 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
+          <t>EIA Crude Oil Imports ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr"/>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>2.373M</t>
+          <t>0.999M</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr"/>
@@ -41208,13 +41204,13 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr"/>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>0.164M</t>
+          <t>2.373M</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr"/>
@@ -41233,13 +41229,13 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr"/>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>0.264M</t>
+          <t>0.164M</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
@@ -41258,13 +41254,13 @@
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
+          <t>EIA Distillate Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr"/>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>0.062M</t>
+          <t>0.264M</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr"/>
@@ -41283,13 +41279,13 @@
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
+          <t>EIA Gasoline Production ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr"/>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>0.209M</t>
+          <t>0.062M</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr"/>
@@ -41308,13 +41304,13 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr"/>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>-0.192M</t>
+          <t>0.209M</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr"/>
@@ -41328,18 +41324,18 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr"/>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>-0.192M</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr"/>
@@ -41353,18 +41349,18 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr"/>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>4.310%</t>
+          <t>4.200%</t>
         </is>
       </c>
       <c r="E1500" t="inlineStr"/>
@@ -41378,12 +41374,12 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr"/>
@@ -41392,50 +41388,50 @@
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>10-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr"/>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>4.310%</t>
+        </is>
+      </c>
       <c r="E1502" t="inlineStr"/>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMMAR</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr"/>
+      <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr">
         <is>
           <t>1</t>
@@ -41445,31 +41441,15 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAR</t>
-        </is>
-      </c>
+          <t>Thursday April 10 2025</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr"/>
       <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1504" t="inlineStr"/>
       <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="inlineStr"/>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
@@ -41479,7 +41459,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMMAR</t>
+          <t>Core Inflation Rate MoMMAR</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr"/>
@@ -41490,12 +41470,12 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1505" t="inlineStr">
@@ -41512,19 +41492,19 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYMAR</t>
+          <t>Core Inflation Rate YoYMAR</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr"/>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr"/>
       <c r="F1506" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G1506" t="inlineStr">
@@ -41541,24 +41521,28 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>CPIMAR</t>
+          <t>Inflation Rate MoMMAR</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr"/>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>319.082</t>
-        </is>
-      </c>
-      <c r="E1507" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr">
         <is>
-          <t>320.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41570,24 +41554,24 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>CPI s.aMAR</t>
+          <t>Inflation Rate YoYMAR</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr"/>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>319.775</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr"/>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>320.1</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41599,19 +41583,19 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
+          <t>CPIMAR</t>
         </is>
       </c>
       <c r="C1509" t="inlineStr"/>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>219K</t>
+          <t>319.082</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr"/>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>226.0K</t>
+          <t>320.1</t>
         </is>
       </c>
       <c r="G1509" t="inlineStr">
@@ -41628,24 +41612,24 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
+          <t>CPI s.aMAR</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr"/>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>1903K</t>
+          <t>319.775</t>
         </is>
       </c>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr">
         <is>
-          <t>1915.0K</t>
+          <t>320.1</t>
         </is>
       </c>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41657,13 +41641,13 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
+          <t>Initial Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr"/>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>223K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E1511" t="inlineStr"/>
@@ -41674,29 +41658,33 @@
       </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
+          <t>Continuing Jobless ClaimsMAR/29</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr"/>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>29Bcf</t>
+          <t>1903K</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>1915.0K</t>
+        </is>
+      </c>
       <c r="G1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -41706,22 +41694,26 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Jobless Claims 4-week AverageAPR/05</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr"/>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>226.0K</t>
+        </is>
+      </c>
       <c r="G1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -41731,64 +41723,64 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Fed Logan Speech</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
+      <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>29Bcf</t>
+        </is>
+      </c>
       <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateAPR/10</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr"/>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1516" t="inlineStr"/>
@@ -41802,18 +41794,18 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateAPR/10</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr"/>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1517" t="inlineStr"/>
@@ -41832,7 +41824,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr"/>
@@ -41841,25 +41833,25 @@
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>15-Year Mortgage RateAPR/10</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr"/>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>4.623%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr"/>
@@ -41873,60 +41865,64 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementMAR</t>
+          <t>30-Year Mortgage RateAPR/10</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr"/>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>$-307B</t>
+          <t>6.64%</t>
         </is>
       </c>
       <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
+      <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>WASDE Report</t>
+        </is>
+      </c>
       <c r="C1521" t="inlineStr"/>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr"/>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/09</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr"/>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>$6.72T</t>
+          <t>4.623%</t>
         </is>
       </c>
       <c r="E1522" t="inlineStr"/>
@@ -41940,92 +41936,64 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Monthly Budget StatementMAR</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr"/>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>$-307B</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$-315.6B</t>
         </is>
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAR</t>
-        </is>
-      </c>
+          <t>Friday April 11 2025</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr"/>
       <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1524" t="inlineStr"/>
+      <c r="E1524" t="inlineStr"/>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="inlineStr"/>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Fed Balance SheetAPR/09</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr"/>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>$6.72T</t>
         </is>
       </c>
       <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
           <t>3</t>
@@ -42040,24 +42008,28 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>PPI MoMMAR</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr"/>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>147.953</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1526" t="inlineStr">
         <is>
-          <t>147.8</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42069,24 +42041,28 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Core PPI MoMMAR</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr"/>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42098,19 +42074,19 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Core PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr"/>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1528" t="inlineStr"/>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1528" t="inlineStr">
@@ -42127,19 +42103,19 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>PPIMAR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr"/>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>147.953</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>147.8</t>
         </is>
       </c>
       <c r="G1529" t="inlineStr">
@@ -42151,53 +42127,53 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr"/>
       <c r="F1530" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr"/>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1531" t="inlineStr">
@@ -42209,24 +42185,24 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>PPI YoYMAR</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr"/>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="G1532" t="inlineStr">
@@ -42243,24 +42219,24 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Michigan Consumer Sentiment PrelAPR</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="E1533" t="inlineStr"/>
       <c r="F1533" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42272,42 +42248,42 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1534" t="inlineStr"/>
       <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1534" t="inlineStr"/>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr"/>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="E1535" t="inlineStr"/>
-      <c r="F1535" t="inlineStr"/>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G1535" t="inlineStr">
         <is>
           <t>3</t>
@@ -42317,18 +42293,26 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>Michigan Consumer Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr"/>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
       <c r="E1536" t="inlineStr"/>
-      <c r="F1536" t="inlineStr"/>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
       <c r="G1536" t="inlineStr">
         <is>
           <t>3</t>
@@ -42338,28 +42322,149 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions PrelAPR</t>
+        </is>
+      </c>
       <c r="C1537" t="inlineStr"/>
-      <c r="D1537" t="inlineStr"/>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
       <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations PrelAPR</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr"/>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr"/>
+      <c r="D1539" t="inlineStr"/>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr"/>
+      <c r="D1540" t="inlineStr"/>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr"/>
+      <c r="D1541" t="inlineStr"/>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr"/>
+      <c r="C1542" t="inlineStr"/>
+      <c r="D1542" t="inlineStr"/>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
           <t>Monday April 14 2025</t>
         </is>
       </c>
-      <c r="B1538" t="inlineStr"/>
-      <c r="C1538" t="inlineStr"/>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
+      <c r="B1543" t="inlineStr"/>
+      <c r="C1543" t="inlineStr"/>
+      <c r="D1543" t="inlineStr"/>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -40220,10 +40220,14 @@
           <t>Non Farm PayrollsMAR</t>
         </is>
       </c>
-      <c r="C1455" t="inlineStr"/>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>228K</t>
+        </is>
+      </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>151K</t>
+          <t>117K</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
@@ -40253,7 +40257,11 @@
           <t>Unemployment RateMAR</t>
         </is>
       </c>
-      <c r="C1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="D1456" t="inlineStr">
         <is>
           <t>4.1%</t>
@@ -40286,10 +40294,14 @@
           <t>Average Hourly Earnings MoMMAR</t>
         </is>
       </c>
-      <c r="C1457" t="inlineStr"/>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
@@ -40319,7 +40331,11 @@
           <t>Average Hourly Earnings YoYMAR</t>
         </is>
       </c>
-      <c r="C1458" t="inlineStr"/>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="D1458" t="inlineStr">
         <is>
           <t>4%</t>
@@ -40352,7 +40368,11 @@
           <t>Participation RateMAR</t>
         </is>
       </c>
-      <c r="C1459" t="inlineStr"/>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
       <c r="D1459" t="inlineStr">
         <is>
           <t>62.4%</t>
@@ -40381,10 +40401,14 @@
           <t>Average Weekly HoursMAR</t>
         </is>
       </c>
-      <c r="C1460" t="inlineStr"/>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
@@ -40414,10 +40438,14 @@
           <t>Government PayrollsMAR</t>
         </is>
       </c>
-      <c r="C1461" t="inlineStr"/>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>19K</t>
+        </is>
+      </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>11K</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="E1461" t="inlineStr"/>
@@ -40443,10 +40471,14 @@
           <t>Manufacturing PayrollsMAR</t>
         </is>
       </c>
-      <c r="C1462" t="inlineStr"/>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>8K</t>
         </is>
       </c>
       <c r="E1462" t="inlineStr">
@@ -40476,10 +40508,14 @@
           <t>Nonfarm Payrolls PrivateMAR</t>
         </is>
       </c>
-      <c r="C1463" t="inlineStr"/>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>209K</t>
+        </is>
+      </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>140K</t>
+          <t>116K</t>
         </is>
       </c>
       <c r="E1463" t="inlineStr">
@@ -40509,7 +40545,11 @@
           <t>U-6 Unemployment RateMAR</t>
         </is>
       </c>
-      <c r="C1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="D1464" t="inlineStr">
         <is>
           <t>8%</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1543"/>
+  <dimension ref="A1:G1544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40853,7 +40853,11 @@
           <t>$18.08B</t>
         </is>
       </c>
-      <c r="E1478" t="inlineStr"/>
+      <c r="E1478" t="inlineStr">
+        <is>
+          <t>$15.2B</t>
+        </is>
+      </c>
       <c r="F1478" t="inlineStr">
         <is>
           <t>$15.0B</t>
@@ -40882,7 +40886,11 @@
           <t>100.7</t>
         </is>
       </c>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>101.3</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr">
         <is>
           <t>100</t>
@@ -41541,7 +41549,11 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr">
         <is>
           <t>3.0%</t>
@@ -41572,7 +41584,7 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr">
@@ -41603,7 +41615,11 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="E1508" t="inlineStr"/>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F1508" t="inlineStr">
         <is>
           <t>2.5%</t>
@@ -41690,7 +41706,11 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="E1511" t="inlineStr"/>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="F1511" t="inlineStr">
         <is>
           <t>226.0K</t>
@@ -42059,12 +42079,12 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
           <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1526" t="inlineStr">
@@ -42097,7 +42117,7 @@
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1527" t="inlineStr">
@@ -42123,10 +42143,14 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="E1528" t="inlineStr"/>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G1528" t="inlineStr">
@@ -42155,7 +42179,7 @@
       <c r="E1529" t="inlineStr"/>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>147.8</t>
+          <t>148.1</t>
         </is>
       </c>
       <c r="G1529" t="inlineStr">
@@ -42239,10 +42263,14 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="E1532" t="inlineStr"/>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1532" t="inlineStr">
@@ -42268,7 +42296,11 @@
           <t>57.0</t>
         </is>
       </c>
-      <c r="E1533" t="inlineStr"/>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>54.5</t>
+        </is>
+      </c>
       <c r="F1533" t="inlineStr">
         <is>
           <t>56.4</t>
@@ -42506,6 +42538,35 @@
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr"/>
     </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>Consumer Inflation ExpectationsMAR</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr"/>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1544"/>
+  <dimension ref="A1:G1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42567,6 +42567,69 @@
         </is>
       </c>
     </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr"/>
+      <c r="D1545" t="inlineStr"/>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr"/>
+      <c r="D1546" t="inlineStr"/>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr"/>
+      <c r="D1547" t="inlineStr"/>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-14.xlsx
@@ -40641,7 +40641,11 @@
           <t>Baker Hughes Oil Rig CountAPR/04</t>
         </is>
       </c>
-      <c r="C1468" t="inlineStr"/>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
       <c r="D1468" t="inlineStr">
         <is>
           <t>484</t>
@@ -40670,7 +40674,11 @@
           <t>Baker Hughes Total Rigs CountAPR/04</t>
         </is>
       </c>
-      <c r="C1469" t="inlineStr"/>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
       <c r="D1469" t="inlineStr">
         <is>
           <t>592</t>
@@ -42482,7 +42490,11 @@
         </is>
       </c>
       <c r="C1540" t="inlineStr"/>
-      <c r="D1540" t="inlineStr"/>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr">
@@ -42503,7 +42515,11 @@
         </is>
       </c>
       <c r="C1541" t="inlineStr"/>
-      <c r="D1541" t="inlineStr"/>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
       <c r="E1541" t="inlineStr"/>
       <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr">
